--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>项目名称</t>
   </si>
@@ -89,6 +89,13 @@
   </si>
   <si>
     <t>何娟</t>
+  </si>
+  <si>
+    <t>咪咕汇票选第二阶段--查询明星专区信息接口返回是否可以领取咪咕币的标识
+咪咕汇票选第二阶段--增加查询用户彩铃投票是否达到当天限制的接口</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>袁常鑫</t>
@@ -100,8 +107,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,7 +126,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -121,68 +133,185 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,12 +320,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -230,18 +545,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,29 +852,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -598,369 +1196,378 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.8833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.775" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" ht="69" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -70,6 +70,12 @@
     <t>陈毅昌</t>
   </si>
   <si>
+    <t>1.差异化运营开发</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>王琪</t>
   </si>
   <si>
@@ -93,9 +99,6 @@
   <si>
     <t>咪咕汇票选第二阶段--查询明星专区信息接口返回是否可以领取咪咕币的标识
 咪咕汇票选第二阶段--增加查询用户彩铃投票是否达到当天限制的接口</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>袁常鑫</t>
@@ -109,12 +112,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +158,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -163,8 +245,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,140 +277,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,25 +322,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,157 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,11 +536,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,26 +575,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,21 +606,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,16 +651,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,125 +669,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -816,9 +806,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -842,9 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1205,7 +1189,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1260,10 +1244,14 @@
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" ht="17.25" spans="1:8">
       <c r="A3" s="6" t="s">
@@ -1278,10 +1266,14 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="E3" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="17.25" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -1296,10 +1288,14 @@
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="E4" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
       <c r="A5" s="6" t="s">
@@ -1314,10 +1310,14 @@
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="E5" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" ht="17.25" spans="1:8">
       <c r="A6" s="6" t="s">
@@ -1332,10 +1332,14 @@
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="E6" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" ht="17.25" spans="1:8">
       <c r="A7" s="6" t="s">
@@ -1350,10 +1354,18 @@
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="E7" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="7" t="s">
@@ -1363,15 +1375,19 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="E8" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" ht="17.25" spans="1:8">
       <c r="A9" s="7" t="s">
@@ -1380,16 +1396,20 @@
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>18</v>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" ht="17.25" spans="1:8">
       <c r="A10" s="6" t="s">
@@ -1399,15 +1419,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="10"/>
+      <c r="E10" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" ht="17.25" spans="1:8">
       <c r="A11" s="6" t="s">
@@ -1417,15 +1441,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="10"/>
+      <c r="E11" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" ht="17.25" spans="1:8">
       <c r="A12" s="6" t="s">
@@ -1434,16 +1462,20 @@
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>21</v>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="10"/>
+      <c r="E12" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="6" t="s">
@@ -1453,15 +1485,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" ht="69" spans="1:8">
       <c r="A14" s="6" t="s">
@@ -1471,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1482,11 +1518,11 @@
       <c r="F14" s="6">
         <v>20171117</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>24</v>
+      <c r="G14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:8">
@@ -1497,18 +1533,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="10"/>
+      <c r="E15" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="8:8">
-      <c r="H17" s="19"/>
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1530,7 +1570,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.与客户端联调,配合客户端对模板进行修改
+2.解决缓存前置场景存储中,连接数据较大而无法存储的问题</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -112,9 +116,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -158,6 +162,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -165,75 +185,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,55 +289,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,19 +326,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +416,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,25 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,115 +482,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,25 +541,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,17 +570,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,17 +598,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -627,6 +620,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -639,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,136 +655,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1189,7 +1193,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1433,7 +1437,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="51.75" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1452,8 +1456,12 @@
       <c r="F11" s="6">
         <v>20171117</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" ht="17.25" spans="1:8">
       <c r="A12" s="6" t="s">
@@ -1463,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1485,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1507,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1519,7 +1527,7 @@
         <v>20171117</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>18</v>
@@ -1533,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1570,7 +1578,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -98,30 +98,39 @@
     <t>曾昌林</t>
   </si>
   <si>
+    <t>咪咕汇票选第二阶段--是否为歌手投票判断
+咪咕汇票选第二阶段--超级礼包修改</t>
+  </si>
+  <si>
     <t>何娟</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
   <si>
     <t>咪咕汇票选第二阶段--查询明星专区信息接口返回是否可以领取咪咕币的标识
 咪咕汇票选第二阶段--增加查询用户彩铃投票是否达到当天限制的接口</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕汇票选第二阶段--是否为歌手投票判断
-咪咕汇票选第二阶段--超级礼包修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>1.与测试联调演唱会互动总数的计数与获取功能
+2.修改MIGUMS管控平台页面回显问题
+3.互动总数计数与获取功能上线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,25 +171,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,12 +329,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -228,18 +554,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -278,22 +852,66 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -584,439 +1202,444 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20171113</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20171117</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20171113</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20171117</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20171113</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20171117</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20171113</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20171117</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20171113</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20171117</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20171113</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20171117</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20171113</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20171117</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>20171113</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>20171117</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>20171113</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>20171117</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="51.75" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>20171113</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>20171117</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>20171113</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>20171117</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="34.5" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>20171113</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>20171117</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="69" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="H15" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="15"/>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20171117周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>项目名称</t>
   </si>
@@ -86,10 +91,6 @@
   </si>
   <si>
     <t>张文韬</t>
-  </si>
-  <si>
-    <t>1.与客户端联调,配合客户端对模板进行修改
-2.解决缓存前置场景存储中,连接数据较大而无法存储的问题</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -122,14 +123,36 @@
   <si>
     <t>1.贡献榜、通知、明星榜、广告开关规则统一修改
 2.播控平台相关开关等功能修复</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.与客户端联调,配合客户端对模板进行修改
+2.解决缓存前置场景存储中,连接数据较大而无法存储的问题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.联调、上线呢喃接口
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.联调修改bug</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +210,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -246,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,6 +327,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -309,6 +342,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -357,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,9 +426,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,6 +478,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,7 +674,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -824,7 +894,7 @@
         <v>20171117</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>18</v>
@@ -871,14 +941,14 @@
       <c r="F11" s="4">
         <v>20171117</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>23</v>
+      <c r="G11" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -886,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -897,8 +967,12 @@
       <c r="F12" s="4">
         <v>20171117</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -908,19 +982,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20171113</v>
+      </c>
+      <c r="F13" s="4">
+        <v>20171117</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -932,19 +1006,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20171113</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20171117</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>18</v>
@@ -958,19 +1032,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20171113</v>
+      </c>
+      <c r="F15" s="4">
+        <v>20171117</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>18</v>
@@ -982,7 +1056,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -998,7 +1072,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">

--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20171117周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23385" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -69,69 +64,54 @@
     <t>陆晨曦</t>
   </si>
   <si>
+    <t>解决从FTP服务器上获取不到文件的问题。</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>赵小平</t>
   </si>
   <si>
+    <t>集星卡活动查询剩余翻牌次数接口、兑奖接口开发</t>
+  </si>
+  <si>
     <t>陈毅昌</t>
   </si>
   <si>
     <t>1.差异化运营开发</t>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t>王琪</t>
   </si>
   <si>
     <t>罗健</t>
-  </si>
-  <si>
-    <t>陈平</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t>咪咕汇票选第二阶段--是否为歌手投票判断
-咪咕汇票选第二阶段--超级礼包修改</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>咪咕汇票选第二阶段--查询明星专区信息接口返回是否可以领取咪咕币的标识
-咪咕汇票选第二阶段--增加查询用户彩铃投票是否达到当天限制的接口</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>1.与测试联调演唱会互动总数的计数与获取功能
-2.修改MIGUMS管控平台页面回显问题
-3.互动总数计数与获取功能上线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
   <si>
     <t>1.贡献榜、通知、明星榜、广告开关规则统一修改
 2.播控平台相关开关等功能修复</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>张文韬</t>
   </si>
   <si>
     <t>1.与客户端联调,配合客户端对模板进行修改
 2.解决缓存前置场景存储中,连接数据较大而无法存储的问题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李春荣</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.联调、上线呢喃接口
 </t>
     </r>
@@ -140,19 +120,54 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2.联调修改bug</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>咪咕汇票选第二阶段--是否为歌手投票判断
+咪咕汇票选第二阶段--超级礼包修改</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>咪咕汇票选第二阶段--查询明星专区信息接口返回是否可以领取咪咕币的标识
+咪咕汇票选第二阶段--增加查询用户彩铃投票是否达到当天限制的接口</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>1.与测试联调演唱会互动总数的计数与获取功能
+2.修改MIGUMS管控平台页面回显问题
+3.互动总数计数与获取功能上线</t>
+  </si>
+  <si>
+    <t>贾洋</t>
+  </si>
+  <si>
+    <t>厦门大区bug修复，重庆移动领流量接口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,31 +209,161 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,12 +372,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -266,18 +597,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -307,6 +886,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -322,29 +904,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -393,7 +1010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,26 +1043,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,23 +1078,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,451 +1248,483 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20171113</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20171117</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20171113</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20171117</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20171113</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20171117</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20171113</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20171117</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20171113</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20171117</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="6">
         <v>20171113</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="6">
         <v>20171117</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="6">
         <v>20171113</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="6">
         <v>20171117</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="G9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="6">
         <v>20171113</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="6">
         <v>20171117</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="51.75" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="34.5" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" ht="69" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E15" s="6">
         <v>20171113</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F15" s="6">
         <v>20171117</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="G15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E16" s="6">
         <v>20171113</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F16" s="6">
         <v>20171117</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="16"/>
+      <c r="G16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -164,10 +164,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,16 +208,93 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,48 +306,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,79 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -362,8 +337,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,7 +372,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +432,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,163 +492,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,17 +601,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,8 +648,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,25 +683,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,143 +701,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -884,9 +872,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1532,7 +1517,7 @@
       <c r="F11" s="6">
         <v>20171117</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -1558,7 +1543,7 @@
       <c r="F12" s="6">
         <v>20171117</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -1584,10 +1569,10 @@
       <c r="F13" s="6">
         <v>20171117</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" ht="69" spans="1:8">
       <c r="A14" s="6" t="s">
@@ -1634,10 +1619,10 @@
       <c r="F15" s="6">
         <v>20171117</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1657,15 +1642,15 @@
       <c r="F16" s="6">
         <v>20171117</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="8:8">
-      <c r="H17" s="19"/>
+      <c r="H17" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20171117周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23385" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>项目名称</t>
   </si>
@@ -98,6 +93,10 @@
   </si>
   <si>
     <t>陈平</t>
+  </si>
+  <si>
+    <t>1.统一日志联调，配合测试人员测试
+2.趣玩乐样式修改，处理原有缓存方式，压力过大问题</t>
   </si>
   <si>
     <t>张文韬</t>
@@ -159,23 +158,26 @@
     <t>厦门大区bug修复，重庆移动领流量接口</t>
   </si>
   <si>
+    <t>胡阳</t>
+  </si>
+  <si>
+    <t>1.学习项目相关应用技术</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.统一日志联调，配合测试人员测试
-2.趣玩乐样式修改，处理原有缓存方式，压力过大问题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,39 +218,162 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,12 +382,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -296,18 +607,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -334,6 +893,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -349,35 +914,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -664,486 +1258,505 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20171113</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20171117</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20171113</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20171117</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20171113</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20171117</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20171113</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20171117</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20171113</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20171117</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20171113</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20171117</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20171113</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20171117</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>20171113</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>20171117</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>20171113</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>20171117</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="51.75" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="34.5" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" ht="69" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="2:8">
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F17" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="16"/>
+      <c r="H17" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -174,10 +174,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,25 +219,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +238,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -260,14 +254,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,23 +299,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +328,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -326,54 +366,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,187 +382,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +613,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -632,27 +640,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -673,6 +664,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -687,34 +693,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,19 +711,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,122 +732,122 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -892,12 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1267,7 +1249,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1523,7 +1505,7 @@
       <c r="G10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1546,7 +1528,7 @@
       <c r="F11" s="6">
         <v>20171117</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -1572,7 +1554,7 @@
       <c r="F12" s="6">
         <v>20171117</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -1598,10 +1580,10 @@
       <c r="F13" s="6">
         <v>20171117</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" ht="69" spans="1:8">
       <c r="A14" s="6" t="s">
@@ -1648,10 +1630,10 @@
       <c r="F15" s="6">
         <v>20171117</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1671,10 +1653,10 @@
       <c r="F16" s="6">
         <v>20171117</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1694,10 +1676,10 @@
       <c r="F17" s="6">
         <v>20171117</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>项目名称</t>
   </si>
@@ -58,6 +58,12 @@
     <t>杜智恒</t>
   </si>
   <si>
+    <t>1,完成文件上传功能开发</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>凌河源</t>
   </si>
   <si>
@@ -65,9 +71,6 @@
   </si>
   <si>
     <t>解决从FTP服务器上获取不到文件的问题。</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>赵小平</t>
@@ -172,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -218,13 +221,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,10 +273,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,8 +289,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,66 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -345,23 +350,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,25 +385,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,13 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,66 +517,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,60 +560,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,6 +599,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -607,44 +634,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,17 +668,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,136 +714,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1249,7 +1252,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1332,8 +1335,12 @@
       <c r="F3" s="6">
         <v>20171117</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" ht="17.25" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -1343,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -1365,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1377,10 +1384,10 @@
         <v>20171117</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:8">
@@ -1391,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1403,10 +1410,10 @@
         <v>20171117</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:8">
@@ -1417,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1429,10 +1436,10 @@
         <v>20171117</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
@@ -1443,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1465,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1477,10 +1484,10 @@
         <v>20171117</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="34.5" spans="1:8">
@@ -1491,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1503,10 +1510,10 @@
         <v>20171117</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="51.75" spans="1:8">
@@ -1517,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1529,10 +1536,10 @@
         <v>20171117</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="34.5" spans="1:8">
@@ -1543,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1555,10 +1562,10 @@
         <v>20171117</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="34.5" spans="1:8">
@@ -1569,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1581,7 +1588,7 @@
         <v>20171117</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -1593,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1605,10 +1612,10 @@
         <v>20171117</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="51.75" spans="1:8">
@@ -1619,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1631,10 +1638,10 @@
         <v>20171117</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="2:8">
@@ -1642,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1654,10 +1661,10 @@
         <v>20171117</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="2:8">
@@ -1665,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
@@ -1677,7 +1684,7 @@
         <v>20171117</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" s="17"/>
     </row>
@@ -1701,7 +1708,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>项目名称</t>
   </si>
@@ -305,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,9 +338,6 @@
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -660,23 +657,23 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -702,7 +699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -724,7 +721,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -750,7 +747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -772,7 +769,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -798,7 +795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -824,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -850,7 +847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -876,7 +873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -902,7 +899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -928,7 +925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -954,7 +951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -980,7 +977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1002,9 +999,11 @@
       <c r="G13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="H13" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -1049,14 +1048,14 @@
       <c r="F15" s="4">
         <v>20171117</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="H15" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1072,14 +1071,14 @@
       <c r="F16" s="4">
         <v>20171117</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1095,10 +1094,10 @@
       <c r="F17" s="4">
         <v>20171117</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1115,42 +1114,42 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>项目名称</t>
   </si>
@@ -55,15 +55,18 @@
     <t>北京烽火</t>
   </si>
   <si>
+    <t>歌单查询从内容组件到系统中心功能研发</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>杜智恒</t>
   </si>
   <si>
     <t>1,完成文件上传功能开发</t>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t>凌河源</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>王琪</t>
+  </si>
+  <si>
+    <t>1演唱会的轮训接口改版</t>
   </si>
   <si>
     <t>罗健</t>
@@ -117,7 +123,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1.联调、上线呢喃接口
@@ -128,7 +133,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2.联调修改bug</t>
@@ -171,16 +175,18 @@
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
-  <si>
-    <t>1演唱会的轮训接口改版</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +198,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -200,54 +205,185 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,12 +392,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -295,18 +617,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -322,6 +892,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -339,25 +912,66 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -648,514 +1262,519 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20171113</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20171117</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20171113</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20171117</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20171113</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20171117</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20171113</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20171117</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20171113</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20171117</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20171113</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20171117</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20171113</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20171117</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="51.75" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="34.5" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="69" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="2:8">
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20171113</v>
+      </c>
+      <c r="F17" s="6">
+        <v>20171117</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4">
-        <v>20171113</v>
-      </c>
-      <c r="F17" s="4">
-        <v>20171117</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
+++ b/20171117周报/技术支撑服务人员周报日报-20171117.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>项目名称</t>
   </si>
@@ -113,6 +113,9 @@
   <si>
     <t>1.与客户端联调,配合客户端对模板进行修改
 2.解决缓存前置场景存储中,连接数据较大而无法存储的问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代码 </t>
   </si>
   <si>
     <t>李春荣</t>
@@ -181,12 +184,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,9 +230,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -240,7 +245,111 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,45 +363,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -308,82 +378,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,187 +394,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,56 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -679,6 +619,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,6 +656,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -715,157 +679,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,7 +1261,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1566,7 +1556,7 @@
         <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="34.5" spans="1:8">
@@ -1577,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1589,7 +1579,7 @@
         <v>20171117</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>13</v>
@@ -1603,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1615,7 +1605,7 @@
         <v>20171117</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>13</v>
@@ -1629,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1641,7 +1631,7 @@
         <v>20171117</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>13</v>
@@ -1655,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1667,7 +1657,7 @@
         <v>20171117</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>13</v>
@@ -1678,7 +1668,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1690,7 +1680,7 @@
         <v>20171117</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>13</v>
@@ -1701,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
@@ -1713,7 +1703,7 @@
         <v>20171117</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="16"/>
     </row>
@@ -1737,7 +1727,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
